--- a/cifrado 3 capas.xlsx
+++ b/cifrado 3 capas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cursos\IFCM026PO\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7913B7-EE0B-4471-B5DA-EDDA3745AEDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769A51BC-3DD5-4F4F-8D72-EA5AB569E7DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{97D4B04A-5179-4A79-BC62-8C85F9768599}"/>
+    <workbookView xWindow="-4320" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{97D4B04A-5179-4A79-BC62-8C85F9768599}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
   <si>
     <t>A</t>
   </si>
@@ -118,6 +118,36 @@
   </si>
   <si>
     <t>alf.</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -468,13 +498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C759DAEF-69B0-4CDB-9B61-70D4CE25934F}">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="29" width="3.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29">
       <c r="C1" t="s">
@@ -824,6 +857,68 @@
       </c>
       <c r="AC4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/cifrado 3 capas.xlsx
+++ b/cifrado 3 capas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cursos\IFCM026PO\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769A51BC-3DD5-4F4F-8D72-EA5AB569E7DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC509283-27FB-4028-BC60-F9CFD78BE28A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4320" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{97D4B04A-5179-4A79-BC62-8C85F9768599}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{97D4B04A-5179-4A79-BC62-8C85F9768599}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
   <si>
     <t>A</t>
   </si>
@@ -129,9 +129,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -141,33 +138,80 @@
     <t>l</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>f</t>
+    <t>n</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Clave QNJ</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Fuente de cuerpo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Fuente de cuerpo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,8 +226,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C759DAEF-69B0-4CDB-9B61-70D4CE25934F}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:P9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -632,7 +680,7 @@
       <c r="M2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O2" t="s">
@@ -674,7 +722,7 @@
       <c r="AA2" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AC2" t="s">
@@ -721,7 +769,7 @@
       <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
@@ -763,7 +811,7 @@
       <c r="AA3" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AC3" t="s">
@@ -810,7 +858,7 @@
       <c r="M4" t="s">
         <v>21</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O4" t="s">
@@ -852,73 +900,238 @@
       <c r="AA4" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AC4" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:29">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="2"/>
+    </row>
     <row r="7" spans="1:29">
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" t="s">
-        <v>34</v>
-      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="L8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" t="s">
-        <v>11</v>
-      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P9" t="s">
-        <v>32</v>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="H10" t="str">
+        <f>_xlfn.CONCAT(H7:H9)</f>
+        <v>y</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10:V10" si="0">_xlfn.CONCAT(I7:I9)</f>
+        <v>o</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>s</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>g</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>l</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>w</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>z</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="0"/>
+        <v>k</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>w</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="0"/>
+        <v>w</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="0"/>
+        <v>w</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="0"/>
+        <v>g</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="0"/>
+        <v>z</v>
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="L11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" t="s">
-        <v>37</v>
+      <c r="H11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/cifrado 3 capas.xlsx
+++ b/cifrado 3 capas.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cursos\IFCM026PO\repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cursos\IFCM026PO\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC509283-27FB-4028-BC60-F9CFD78BE28A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CCF6C1-38A0-4791-94A7-5AABC2EBAC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{97D4B04A-5179-4A79-BC62-8C85F9768599}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="58">
   <si>
     <t>A</t>
   </si>
@@ -168,13 +169,46 @@
     <t>m</t>
   </si>
   <si>
-    <t>Clave QNJ</t>
-  </si>
-  <si>
     <t>q</t>
   </si>
   <si>
     <t>j</t>
+  </si>
+  <si>
+    <t>" +3"</t>
+  </si>
+  <si>
+    <t>"+5"</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>ñ</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Clave PMI</t>
   </si>
 </sst>
 </file>
@@ -194,7 +228,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,12 +238,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,12 +254,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C759DAEF-69B0-4CDB-9B61-70D4CE25934F}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="R3" sqref="R1:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -671,7 +698,7 @@
       <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L2" t="s">
@@ -722,7 +749,7 @@
       <c r="AA2" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AC2" t="s">
@@ -760,7 +787,7 @@
       <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L3" t="s">
@@ -811,7 +838,7 @@
       <c r="AA3" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AC3" t="s">
@@ -849,7 +876,7 @@
       <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L4" t="s">
@@ -900,7 +927,7 @@
       <c r="AA4" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AC4" t="s">
@@ -928,210 +955,1215 @@
     <row r="6" spans="1:29">
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="G7" s="2" t="s">
-        <v>45</v>
+      <c r="G7" t="s">
+        <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="3" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="G8" s="2" t="s">
-        <v>35</v>
+      <c r="G8" t="s">
+        <v>12</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="G9" s="2" t="s">
-        <v>46</v>
+      <c r="G9" t="s">
+        <v>8</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:29">
       <c r="H10" t="str">
         <f>_xlfn.CONCAT(H7:H9)</f>
-        <v>y</v>
+        <v>W</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" ref="I10:V10" si="0">_xlfn.CONCAT(I7:I9)</f>
-        <v>o</v>
+        <f t="shared" ref="I10:T10" si="0">_xlfn.CONCAT(I7:I9)</f>
+        <v>Z</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>x</v>
+        <v>Q</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>g</v>
+        <v>I</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>l</v>
+        <v>Z</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="0"/>
-        <v>w</v>
+        <v>F</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="0"/>
-        <v>z</v>
+        <v>D</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>a</v>
+        <v>V</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="0"/>
-        <v>k</v>
+        <v>S</v>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="0"/>
-        <v>w</v>
+        <v>R</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="0"/>
-        <v>w</v>
+        <v>C</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="0"/>
-        <v>w</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="0"/>
-        <v>g</v>
-      </c>
-      <c r="V10" t="str">
-        <f t="shared" si="0"/>
-        <v>z</v>
+        <v>S</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="H11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4025624B-ACDB-41BB-B9E0-B787CF3F98F6}">
+  <dimension ref="A4:BG11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AT10" sqref="AT10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="9" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="59" width="3.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:59">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <v>14</v>
+      </c>
+      <c r="S4">
+        <v>15</v>
+      </c>
+      <c r="T4">
+        <v>16</v>
+      </c>
+      <c r="U4">
+        <v>17</v>
+      </c>
+      <c r="V4">
+        <v>18</v>
+      </c>
+      <c r="W4">
+        <v>19</v>
+      </c>
+      <c r="X4">
+        <v>20</v>
+      </c>
+      <c r="Y4">
+        <v>21</v>
+      </c>
+      <c r="Z4">
+        <v>22</v>
+      </c>
+      <c r="AA4">
+        <v>23</v>
+      </c>
+      <c r="AB4">
+        <v>24</v>
+      </c>
+      <c r="AC4">
+        <v>25</v>
+      </c>
+      <c r="AD4">
+        <v>26</v>
+      </c>
+      <c r="AE4">
+        <v>27</v>
+      </c>
+      <c r="AF4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59">
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" t="s">
+        <v>21</v>
+      </c>
+      <c r="X6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>12</v>
+      </c>
+      <c r="Q9">
+        <v>13</v>
+      </c>
+      <c r="R9">
+        <v>14</v>
+      </c>
+      <c r="S9">
+        <v>15</v>
+      </c>
+      <c r="T9">
+        <v>16</v>
+      </c>
+      <c r="U9">
+        <v>17</v>
+      </c>
+      <c r="V9">
+        <v>18</v>
+      </c>
+      <c r="W9">
+        <v>19</v>
+      </c>
+      <c r="X9">
+        <v>20</v>
+      </c>
+      <c r="Y9">
+        <v>21</v>
+      </c>
+      <c r="Z9">
+        <v>22</v>
+      </c>
+      <c r="AA9">
+        <v>23</v>
+      </c>
+      <c r="AB9">
+        <v>24</v>
+      </c>
+      <c r="AC9">
+        <v>25</v>
+      </c>
+      <c r="AD9">
+        <v>26</v>
+      </c>
+      <c r="AE9">
+        <v>27</v>
+      </c>
+      <c r="AF9">
+        <v>28</v>
+      </c>
+      <c r="AG9">
+        <v>29</v>
+      </c>
+      <c r="AH9">
+        <v>30</v>
+      </c>
+      <c r="AI9">
+        <v>31</v>
+      </c>
+      <c r="AJ9">
+        <v>32</v>
+      </c>
+      <c r="AK9">
+        <v>33</v>
+      </c>
+      <c r="AL9">
+        <v>34</v>
+      </c>
+      <c r="AM9">
+        <v>35</v>
+      </c>
+      <c r="AN9">
+        <v>36</v>
+      </c>
+      <c r="AO9">
+        <v>37</v>
+      </c>
+      <c r="AP9">
+        <v>38</v>
+      </c>
+      <c r="AQ9">
+        <v>39</v>
+      </c>
+      <c r="AR9">
+        <v>40</v>
+      </c>
+      <c r="AS9">
+        <v>41</v>
+      </c>
+      <c r="AT9">
+        <v>42</v>
+      </c>
+      <c r="AU9">
+        <v>43</v>
+      </c>
+      <c r="AV9">
         <v>44</v>
+      </c>
+      <c r="AW9">
+        <v>45</v>
+      </c>
+      <c r="AX9">
+        <v>46</v>
+      </c>
+      <c r="AY9">
+        <v>47</v>
+      </c>
+      <c r="AZ9">
+        <v>48</v>
+      </c>
+      <c r="BA9">
+        <v>49</v>
+      </c>
+      <c r="BB9">
+        <v>50</v>
+      </c>
+      <c r="BC9">
+        <v>51</v>
+      </c>
+      <c r="BD9">
+        <v>52</v>
+      </c>
+      <c r="BE9">
+        <v>53</v>
+      </c>
+      <c r="BF9">
+        <v>54</v>
+      </c>
+      <c r="BG9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" t="s">
+        <v>15</v>
+      </c>
+      <c r="U10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" t="s">
+        <v>21</v>
+      </c>
+      <c r="X11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
